--- a/pred_ohlcv/54_21/2019-10-27 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 KNC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-15789.0431</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11419.3901</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +964,7 @@
         <v>61291.85019999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>65051.72929999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>64393.99149999998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>64393.99149999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>65606.37239999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>65608.37239999998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65608.37239999998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>50300.13459999998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>42074.60489999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>41769.47519999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>25766.95499999998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17875.1169</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-15789.0431</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-15889.0431</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11419.3901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>37613.2113</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -964,7 +964,7 @@
         <v>61291.85019999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>64838.02499999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>65051.72929999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>64393.99149999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>64393.99149999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>65606.37239999998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>65607.37239999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>65608.37239999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>65608.37239999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>62986.53759999998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>48799.63189999998</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>50299.13459999998</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>50300.13459999998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>50300.13459999998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>56642.58919999997</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>56642.58919999997</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>56642.58919999997</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>42074.60489999998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>42074.60489999998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>42074.60489999998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>40638.47519999998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>41769.47519999998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>26882.26329999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>27317.95949999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>25668.95499999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>25766.95499999998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>25766.95499999998</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26744.82869999998</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
